--- a/biology/Zoologie/Étourneau_à_cou_noir/Étourneau_à_cou_noir.xlsx
+++ b/biology/Zoologie/Étourneau_à_cou_noir/Étourneau_à_cou_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_%C3%A0_cou_noir</t>
+          <t>Étourneau_à_cou_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gracupica nigricollis
 L’Étourneau à cou noir (Gracupica nigricollis) est une espèce de passereaux de la famille des Sturnidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_%C3%A0_cou_noir</t>
+          <t>Étourneau_à_cou_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 28 cm de longueur. La tête, le ventre et le croupion sont blancs. Comme son nom l’indique, il possède un collier noir. Le dessus du corps est mauve foncé avec des points blancs sur les ailes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_%C3%A0_cou_noir</t>
+          <t>Étourneau_à_cou_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent à  Brunei, au Cambodge, en Chine, au Laos, en Birmanie, en Thaïlande et au Vietnam.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_%C3%A0_cou_noir</t>
+          <t>Étourneau_à_cou_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts tropicales ou subtropicales.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_%C3%A0_cou_noir</t>
+          <t>Étourneau_à_cou_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour certains ornithologistes[Lesquels ?], il est  classé dans le genre Sturnus.
 </t>
